--- a/VersionRecords/Version 5.0.2.3 20160927/版本Bug和特性计划及评审表v5.0.2.3_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.2.3 20160927/版本Bug和特性计划及评审表v5.0.2.3_磐石组.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -230,6 +230,26 @@
   </si>
   <si>
     <t>孙苏文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展报表优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王健</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -998,7 +1018,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1117,10 +1137,18 @@
       <c r="K2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
+      <c r="L2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="11">
+        <v>42641</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
@@ -1129,20 +1157,46 @@
     </row>
     <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="11">
+        <v>42639</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="11">
+        <v>42640</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="11">
+        <v>42641</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>

--- a/VersionRecords/Version 5.0.2.3 20160927/版本Bug和特性计划及评审表v5.0.2.3_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.2.3 20160927/版本Bug和特性计划及评审表v5.0.2.3_磐石组.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>No</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1018,7 +1022,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2:O3"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1180,7 +1184,7 @@
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>51</v>
